--- a/data/ASME_BPE.xlsx
+++ b/data/ASME_BPE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Tube"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="187">
   <si>
     <t>Clamps</t>
   </si>
@@ -65,58 +65,40 @@
     <t>3/4"</t>
   </si>
   <si>
-    <t>1" - 1 1/2"</t>
-  </si>
-  <si>
-    <t>25,40 - 38,10</t>
-  </si>
-  <si>
-    <t>50,50</t>
+    <t>1"</t>
   </si>
   <si>
     <t>CL-SP-WN-2</t>
   </si>
   <si>
+    <t>1 1/2"</t>
+  </si>
+  <si>
     <t>2"</t>
   </si>
   <si>
-    <t>64,00</t>
-  </si>
-  <si>
     <t>CL-SP-WN-3</t>
   </si>
   <si>
     <t>2 1/2"</t>
   </si>
   <si>
-    <t>77,50</t>
-  </si>
-  <si>
     <t>CL-SP-WN-4</t>
   </si>
   <si>
     <t>3"</t>
   </si>
   <si>
-    <t>91,00</t>
-  </si>
-  <si>
     <t>CL-SP-WN-5</t>
   </si>
   <si>
     <t>4"</t>
   </si>
   <si>
-    <t>119,00</t>
-  </si>
-  <si>
     <t>CL-SP-WN-7</t>
   </si>
   <si>
     <t>6"</t>
-  </si>
-  <si>
-    <t>167,00</t>
   </si>
   <si>
     <t>CL-SP-WN-9</t>
@@ -165,16 +147,10 @@
     <t>SF4-WC-12-5-1</t>
   </si>
   <si>
-    <t>1"</t>
-  </si>
-  <si>
     <t>SF1-WC-16-5-1</t>
   </si>
   <si>
     <t>SF4-WC-16-5-1</t>
-  </si>
-  <si>
-    <t>1 1/2"</t>
   </si>
   <si>
     <t>SF1-WC-24-5-1</t>
@@ -1460,16 +1436,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,23 +1751,23 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="78" width="16.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="79" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="79" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="79" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="80" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="80" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="79" width="31.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="78" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="80" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="79" width="31.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="81" width="15.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="55" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1809,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>5</v>
@@ -1824,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -1838,13 +1814,13 @@
         <v>0.89</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E3" s="61">
         <v>21.991534684119</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="63">
         <v>29.571701811651995</v>
@@ -1864,13 +1840,13 @@
         <v>0.89</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E4" s="61">
         <v>27.257706782806498</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G4" s="67">
         <v>36.37606426734279</v>
@@ -1890,13 +1866,13 @@
         <v>1.65</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E5" s="69">
         <v>26.49823444794605</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G5" s="67">
         <v>32.30925077425001</v>
@@ -1916,13 +1892,13 @@
         <v>1.65</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E6" s="70">
         <v>34.51123505310954</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G6" s="67">
         <v>46.73606730702063</v>
@@ -1933,7 +1909,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="58" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="59">
         <v>25.4</v>
@@ -1942,13 +1918,13 @@
         <v>1.65</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E7" s="70">
         <v>27.726127462982454</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G7" s="67">
         <v>47.340413004956254</v>
@@ -1959,7 +1935,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="58" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="59">
         <v>38.1</v>
@@ -1968,13 +1944,13 @@
         <v>1.65</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E8" s="70">
         <v>36.27590104916185</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G8" s="67">
         <v>56.32811825630638</v>
@@ -1985,7 +1961,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="59">
         <v>50.8</v>
@@ -1994,13 +1970,13 @@
         <v>1.65</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E9" s="70">
         <v>46.841844647684965</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G9" s="67">
         <v>71.90164201080098</v>
@@ -2011,7 +1987,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="59">
         <v>63.5</v>
@@ -2020,13 +1996,13 @@
         <v>1.65</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E10" s="70">
         <v>65.4876274686081</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G10" s="67">
         <v>105.06317517957555</v>
@@ -2037,7 +2013,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="59">
         <v>76.2</v>
@@ -2046,13 +2022,13 @@
         <v>1.65</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E11" s="70">
         <v>70.79333802740737</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G11" s="67">
         <v>113.21409407993792</v>
@@ -2063,7 +2039,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="59">
         <v>101.6</v>
@@ -2072,13 +2048,13 @@
         <v>2.11</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E12" s="70">
         <v>130.6720714767134</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G12" s="67">
         <v>196.44334391614737</v>
@@ -2089,7 +2065,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="72">
         <v>152.4</v>
@@ -2098,13 +2074,13 @@
         <v>2.77</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E13" s="74">
         <v>494.4299561669946</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G13" s="76">
         <v>596.3652355141543</v>
@@ -2140,7 +2116,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="43" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -2157,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -2183,13 +2159,13 @@
         <v>0.89</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E3" s="49">
         <v>25.75240854664478</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G3" s="33">
         <v>47.12660742954162</v>
@@ -2206,13 +2182,13 @@
         <v>0.89</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E4" s="49">
         <v>26.45587551819212</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G4" s="36">
         <v>52.1199684083078</v>
@@ -2229,13 +2205,13 @@
         <v>1.65</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E5" s="50">
         <v>26.32556226402623</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G5" s="36">
         <v>42.75991172705271</v>
@@ -2252,13 +2228,13 @@
         <v>1.65</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E6" s="51">
         <v>24.6677425995861</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G6" s="36">
         <v>41.70818115226838</v>
@@ -2266,7 +2242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>25.4</v>
@@ -2275,13 +2251,13 @@
         <v>1.65</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E7" s="51">
         <v>19.295178872233805</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G7" s="36">
         <v>35.0367558644573</v>
@@ -2289,7 +2265,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>38.1</v>
@@ -2298,13 +2274,13 @@
         <v>1.65</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E8" s="51">
         <v>24.069085498538275</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G8" s="36">
         <v>40.92330758899649</v>
@@ -2312,7 +2288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16">
         <v>50.8</v>
@@ -2321,13 +2297,13 @@
         <v>1.65</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E9" s="51">
         <v>30.807815430845867</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G9" s="36">
         <v>52.91617563579102</v>
@@ -2335,7 +2311,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16">
         <v>63.5</v>
@@ -2344,13 +2320,13 @@
         <v>1.65</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E10" s="51">
         <v>44.66902984741478</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G10" s="36">
         <v>77.52981057999759</v>
@@ -2358,7 +2334,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>76.2</v>
@@ -2367,13 +2343,13 @@
         <v>1.65</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E11" s="51">
         <v>64.74706800563422</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G11" s="36">
         <v>101.24868966207418</v>
@@ -2381,7 +2357,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16">
         <v>101.6</v>
@@ -2390,13 +2366,13 @@
         <v>2.11</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E12" s="51">
         <v>122.11069843167853</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G12" s="36">
         <v>165.9065738044127</v>
@@ -2404,7 +2380,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="42">
         <v>152.4</v>
@@ -2413,13 +2389,13 @@
         <v>2.77</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E13" s="53">
         <v>876.6802921913785</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G13" s="54">
         <v>1210.2976046922959</v>
@@ -2455,7 +2431,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2472,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -2498,16 +2474,16 @@
         <v>0.89</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -2521,16 +2497,16 @@
         <v>0.89</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -2544,13 +2520,13 @@
         <v>1.65</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E5" s="16">
         <v>25.128248061930588</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G5" s="36">
         <v>41.15876965797805</v>
@@ -2567,13 +2543,13 @@
         <v>1.65</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E6" s="16">
         <v>24.283988047632363</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G6" s="36">
         <v>41.25295448557068</v>
@@ -2581,7 +2557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>25.4</v>
@@ -2590,13 +2566,13 @@
         <v>1.65</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E7" s="16">
         <v>18.021113759747404</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G7" s="36">
         <v>34.707108967883094</v>
@@ -2604,7 +2580,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>38.1</v>
@@ -2613,13 +2589,13 @@
         <v>1.65</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E8" s="16">
         <v>21.152550903689892</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G8" s="36">
         <v>37.752418393378036</v>
@@ -2627,7 +2603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16">
         <v>50.8</v>
@@ -2636,13 +2612,13 @@
         <v>1.65</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E9" s="16">
         <v>28.014082292622675</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G9" s="36">
         <v>48.44239632514121</v>
@@ -2650,7 +2626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16">
         <v>63.5</v>
@@ -2659,13 +2635,13 @@
         <v>1.65</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E10" s="16">
         <v>41.32269015437821</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G10" s="36">
         <v>71.8630234531745</v>
@@ -2673,7 +2649,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>76.2</v>
@@ -2682,13 +2658,13 @@
         <v>1.65</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E11" s="13">
         <v>56.85707441746541</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G11" s="33">
         <v>92.67787035114509</v>
@@ -2696,7 +2672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16">
         <v>101.6</v>
@@ -2705,13 +2681,13 @@
         <v>2.11</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E12" s="16">
         <v>102.81551955944475</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G12" s="36">
         <v>149.14167449292506</v>
@@ -2719,7 +2695,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="42">
         <v>152.4</v>
@@ -2728,13 +2704,13 @@
         <v>2.77</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E13" s="13">
         <v>784.6873369963914</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G13" s="33">
         <v>879.6440113373552</v>
@@ -2767,7 +2743,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
@@ -2784,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -2808,16 +2784,16 @@
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -2829,16 +2805,16 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -2850,13 +2826,13 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E5" s="16">
         <v>17.174310755104187</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G5" s="36">
         <v>27.871627601973145</v>
@@ -2871,13 +2847,13 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E6" s="16">
         <v>17.174310755104187</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G6" s="36">
         <v>27.871627601973145</v>
@@ -2885,20 +2861,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>44.5</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E7" s="16">
         <v>19.313349459259765</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G7" s="36">
         <v>32.659586382289355</v>
@@ -2906,20 +2882,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>44.5</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E8" s="16">
         <v>21.622891248529182</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G8" s="36">
         <v>35.02185743615397</v>
@@ -2927,20 +2903,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16">
         <v>57.2</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E9" s="16">
         <v>29.140527274003496</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" s="36">
         <v>46.86492104177055</v>
@@ -2948,20 +2924,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16">
         <v>57.2</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="35" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E10" s="16">
         <v>45.49332316446821</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G10" s="36">
         <v>69.44125648273173</v>
@@ -2969,20 +2945,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>57.2</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="32" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E11" s="13">
         <v>56.049014161062026</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G11" s="33">
         <v>83.99538284144126</v>
@@ -2990,20 +2966,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16">
         <v>57.2</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="35" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E12" s="16">
         <v>77.25339783703906</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G12" s="36">
         <v>111.72432293009375</v>
@@ -3011,20 +2987,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="42">
         <v>76.2</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="32" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E13" s="13">
         <v>222.98703476798633</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G13" s="33">
         <v>273.7222130535076</v>
@@ -3057,7 +3033,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="39"/>
@@ -3074,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -3098,16 +3074,16 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -3119,16 +3095,16 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -3140,13 +3116,13 @@
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="16">
         <v>9.982180619392684</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G5" s="36">
         <v>16.646876554079526</v>
@@ -3161,13 +3137,13 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="16">
         <v>9.982180619392684</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G6" s="36">
         <v>16.646876554079526</v>
@@ -3175,20 +3151,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>28.58</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7" s="16">
         <v>11.764712872855666</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" s="36">
         <v>20.071376873775886</v>
@@ -3196,20 +3172,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>28.58</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E8" s="16">
         <v>11.764712872855666</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G8" s="36">
         <v>21.625085352156642</v>
@@ -3217,20 +3193,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16">
         <v>28.58</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E9" s="16">
         <v>14.849268685369863</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G9" s="36">
         <v>26.397189964326106</v>
@@ -3238,20 +3214,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13">
         <v>28.58</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E10" s="13">
         <v>23.157419014553838</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G10" s="33">
         <v>41.30010802226397</v>
@@ -3259,20 +3235,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>28.58</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E11" s="16">
         <v>25.590963047542427</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G11" s="36">
         <v>46.960046050650995</v>
@@ -3280,20 +3256,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16">
         <v>28.58</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12" s="16">
         <v>36.084652922276675</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G12" s="36">
         <v>62.576401675192265</v>
@@ -3301,20 +3277,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="16">
         <v>38.1</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E13" s="16">
         <v>154.32079230849936</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G13" s="36">
         <v>213.46051992773977</v>
@@ -3347,7 +3323,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="39"/>
@@ -3364,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -3388,16 +3364,16 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -3409,16 +3385,16 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -3430,13 +3406,13 @@
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E5" s="16">
         <v>6.401615832001831</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G5" s="36">
         <v>12.905292871448323</v>
@@ -3451,13 +3427,13 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" s="16">
         <v>6.401615832001831</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G6" s="36">
         <v>12.905292871448323</v>
@@ -3465,20 +3441,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16">
         <v>12.7</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E7" s="16">
         <v>9.346669120331972</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G7" s="36">
         <v>17.5347099702971</v>
@@ -3486,20 +3462,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>12.7</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" s="16">
         <v>9.346669120331972</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G8" s="36">
         <v>19.104272616824595</v>
@@ -3507,20 +3483,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16">
         <v>12.7</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E9" s="16">
         <v>12.539726896100436</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G9" s="36">
         <v>23.98735640602126</v>
@@ -3528,20 +3504,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13">
         <v>12.7</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" s="13">
         <v>16.895305706736064</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G10" s="33">
         <v>34.76819074580609</v>
@@ -3549,20 +3525,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16">
         <v>12.7</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" s="16">
         <v>17.406814962077622</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G11" s="36">
         <v>38.41464941955685</v>
@@ -3570,20 +3546,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="16">
         <v>15.9</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E12" s="16">
         <v>25.854467815445652</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G12" s="36">
         <v>51.906546512434645</v>
@@ -3591,20 +3567,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="16">
         <v>19.1</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E13" s="16">
         <v>119.64666490852814</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G13" s="36">
         <v>177.29716238502027</v>
@@ -3637,7 +3613,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
@@ -3654,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
@@ -3678,13 +3654,13 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="13">
         <v>12.663729139819603</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G3" s="33">
         <v>22.11656456470565</v>
@@ -3699,13 +3675,13 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="16">
         <v>12.028217640758891</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" s="36">
         <v>21.89460621065127</v>
@@ -3713,20 +3689,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B5" s="16">
         <v>25.4</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16">
         <v>13.175238395161152</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G5" s="36">
         <v>24.653231468184437</v>
@@ -3734,20 +3710,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B6" s="16">
         <v>38.1</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E6" s="16">
         <v>16.50779869511368</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G6" s="36">
         <v>29.69485693884852</v>
@@ -3755,20 +3731,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="16">
         <v>50.8</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" s="16">
         <v>18.94134272810227</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G7" s="36">
         <v>33.78523232070806</v>
@@ -3776,20 +3752,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16">
         <v>63.5</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E8" s="16">
         <v>26.226474546603146</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" s="36">
         <v>47.625921112814176</v>
@@ -3797,20 +3773,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16">
         <v>76.2</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16">
         <v>36.47215993389905</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="36">
         <v>61.41904740048008</v>
@@ -3818,20 +3794,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13">
         <v>101.6</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="13">
         <v>47.08985205235245</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G10" s="33">
         <v>77.17809053834203</v>
@@ -3839,20 +3815,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16">
         <v>152.4</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E11" s="16">
         <v>225.52866051082273</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="36">
         <v>312.96751470810176</v>
@@ -3868,9 +3844,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3883,7 +3859,7 @@
     <col min="7" max="7" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +3872,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4015,20 +3991,20 @@
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="16">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="16">
+        <v>50.5</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="16">
         <v>14.6</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="16">
         <v>14.6</v>
@@ -4036,117 +4012,140 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
-        <v>50.8</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>50.5</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16">
-        <v>19.18</v>
+        <v>14.6</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="16">
-        <v>19.18</v>
+        <v>14.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>64</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16">
+        <v>19.18</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="16">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="16">
+        <v>77.5</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16">
+        <v>21.87</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="16">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16">
-        <v>63.5</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B11" s="13">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>91</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E11" s="13">
+        <v>23.09</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16">
-        <v>21.87</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="16">
-        <v>21.87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="B12" s="16">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="16">
+        <v>119</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13">
-        <v>76.2</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="E12" s="16">
+        <v>27.27</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="16">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="B13" s="19">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="19">
+        <v>167</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13">
-        <v>23.09</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="13">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G13" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="16">
-        <v>101.6</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="16">
-        <v>27.27</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="16">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="19">
-        <v>152.4</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/ASME_BPE.xlsx
+++ b/data/ASME_BPE.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b494536d0e93f0f/Documenti/DKW Pharma/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1349FA59F745FEF5EF70F1FBA5730BA59D94CC6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C391291-631D-40BD-9E08-0D417C6D0C60}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Tube"/>
-    <sheet r:id="rId2" sheetId="2" name="Elbow 90°"/>
-    <sheet r:id="rId3" sheetId="3" name="Elbow 45°"/>
-    <sheet r:id="rId4" sheetId="4" name="Ferrule A (long)"/>
-    <sheet r:id="rId5" sheetId="5" name="Ferrule B (medium)"/>
-    <sheet r:id="rId6" sheetId="6" name="Ferrule C (short)"/>
-    <sheet r:id="rId7" sheetId="7" name="End Caps"/>
-    <sheet r:id="rId8" sheetId="8" name="Clamps"/>
+    <sheet name="Tube" sheetId="1" r:id="rId1"/>
+    <sheet name="Elbow 90°" sheetId="2" r:id="rId2"/>
+    <sheet name="Elbow 45°" sheetId="3" r:id="rId3"/>
+    <sheet name="Ferrule A (long)" sheetId="4" r:id="rId4"/>
+    <sheet name="Ferrule B (medium)" sheetId="5" r:id="rId5"/>
+    <sheet name="Ferrule C (short)" sheetId="6" r:id="rId6"/>
+    <sheet name="End Caps" sheetId="7" r:id="rId7"/>
+    <sheet name="Clamps" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
   <si>
     <t>Clamps</t>
   </si>
@@ -715,11 +721,17 @@
   <si>
     <t>SF4-96</t>
   </si>
+  <si>
+    <t>Lenght</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -801,7 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe8e8e8"/>
+        <fgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -818,7 +830,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -830,10 +842,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -845,7 +857,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1005,34 +1017,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1041,7 +1053,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,7 +1114,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1114,10 +1126,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1202,260 +1214,260 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1466,10 +1478,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1507,71 +1519,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1599,7 +1611,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1622,11 +1634,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1635,13 +1647,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1651,7 +1663,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1660,7 +1672,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1669,7 +1681,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1677,10 +1689,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1745,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1753,339 +1765,339 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="78" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="79" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="80" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="79" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="78" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="79" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="81" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="53">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="61">
-        <v>21.991534684119</v>
-      </c>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="55">
+        <v>21.991534684118999</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="57">
         <v>29.571701811651995</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="58">
         <v>0.122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="53">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="55">
         <v>27.257706782806498</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="67">
-        <v>36.37606426734279</v>
-      </c>
-      <c r="H4" s="68">
+      <c r="G4" s="61">
+        <v>36.376064267342791</v>
+      </c>
+      <c r="H4" s="62">
         <v>0.193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="53">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="63">
         <v>26.49823444794605</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="61">
         <v>32.30925077425001</v>
       </c>
-      <c r="H5" s="68">
-        <v>0.458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="58" t="s">
+      <c r="H5" s="62">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="53">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="70">
-        <v>34.51123505310954</v>
-      </c>
-      <c r="F6" s="66" t="s">
+      <c r="E6" s="64">
+        <v>34.511235053109537</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="67">
-        <v>46.73606730702063</v>
-      </c>
-      <c r="H6" s="68">
-        <v>0.722</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="58" t="s">
+      <c r="G6" s="61">
+        <v>46.736067307020633</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="53">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="64">
         <v>27.726127462982454</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="61">
         <v>47.340413004956254</v>
       </c>
-      <c r="H7" s="68">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="58" t="s">
+      <c r="H7" s="62">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="53">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="70">
-        <v>36.27590104916185</v>
-      </c>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="64">
+        <v>36.275901049161853</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="67">
-        <v>56.32811825630638</v>
-      </c>
-      <c r="H8" s="68">
+      <c r="G8" s="61">
+        <v>56.328118256306382</v>
+      </c>
+      <c r="H8" s="62">
         <v>1.512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="53">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="64">
         <v>46.841844647684965</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="67">
-        <v>71.90164201080098</v>
-      </c>
-      <c r="H9" s="68">
-        <v>2.038</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="58" t="s">
+      <c r="G9" s="61">
+        <v>71.901642010800984</v>
+      </c>
+      <c r="H9" s="62">
+        <v>2.0379999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="53">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="70">
-        <v>65.4876274686081</v>
-      </c>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="64">
+        <v>65.487627468608096</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="61">
         <v>105.06317517957555</v>
       </c>
-      <c r="H10" s="68">
-        <v>2.565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="58" t="s">
+      <c r="H10" s="62">
+        <v>2.5649999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="53">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="70">
-        <v>70.79333802740737</v>
-      </c>
-      <c r="F11" s="66" t="s">
+      <c r="E11" s="64">
+        <v>70.793338027407373</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="61">
         <v>113.21409407993792</v>
       </c>
-      <c r="H11" s="68">
-        <v>3.092</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="58" t="s">
+      <c r="H11" s="62">
+        <v>3.0920000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="53">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2.11</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="64">
         <v>130.6720714767134</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="61">
         <v>196.44334391614737</v>
       </c>
-      <c r="H12" s="68">
-        <v>5.276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="71" t="s">
+      <c r="H12" s="62">
+        <v>5.2759999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="66">
         <v>152.4</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>2.77</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="68">
         <v>494.4299561669946</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G13" s="76">
-        <v>596.3652355141543</v>
-      </c>
-      <c r="H13" s="77">
+      <c r="G13" s="70">
+        <v>596.36523551415428</v>
+      </c>
+      <c r="H13" s="71">
         <v>10.417</v>
       </c>
     </row>
@@ -2095,7 +2107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2103,301 +2115,301 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="43">
         <v>25.75240854664478</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="33">
-        <v>47.12660742954162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="31">
+        <v>47.126607429541622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="49">
-        <v>26.45587551819212</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="43">
+        <v>26.455875518192119</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="36">
-        <v>52.1199684083078</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="34">
+        <v>52.119968408307798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="50">
-        <v>26.32556226402623</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="44">
+        <v>26.325562264026232</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>42.75991172705271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="51">
-        <v>24.6677425995861</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="45">
+        <v>24.667742599586099</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="36">
-        <v>41.70818115226838</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="34">
+        <v>41.708181152268381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="45">
         <v>19.295178872233805</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="36">
-        <v>35.0367558644573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>35.036755864457298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="45">
         <v>24.069085498538275</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="36">
-        <v>40.92330758899649</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="34">
+        <v>40.923307588996487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="45">
         <v>30.807815430845867</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="36">
-        <v>52.91617563579102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="34">
+        <v>52.916175635791021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="51">
-        <v>44.66902984741478</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="45">
+        <v>44.669029847414777</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="36">
-        <v>77.52981057999759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>77.529810579997587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="51">
-        <v>64.74706800563422</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="45">
+        <v>64.747068005634219</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>101.24868966207418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2.11</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="45">
         <v>122.11069843167853</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="36">
-        <v>165.9065738044127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41" t="s">
+      <c r="G12" s="34">
+        <v>165.90657380441269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>152.4</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>2.77</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="47">
         <v>876.6802921913785</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="48">
         <v>1210.2976046922959</v>
       </c>
     </row>
@@ -2410,310 +2422,312 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>25.128248061930588</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="36">
-        <v>41.15876965797805</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="34">
+        <v>41.158769657978048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>24.283988047632363</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="36">
-        <v>41.25295448557068</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="34">
+        <v>41.252954485570683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>18.021113759747404</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>34.707108967883094</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>21.152550903689892</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>37.752418393378036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>28.014082292622675</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>48.44239632514121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="16">
-        <v>41.32269015437821</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="14">
+        <v>41.322690154378208</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="36">
-        <v>71.8630234531745</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>71.863023453174506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="13">
-        <v>56.85707441746541</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="11">
+        <v>56.857074417465412</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="33">
-        <v>92.67787035114509</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="31">
+        <v>92.677870351145089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2.11</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>102.81551955944475</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>149.14167449292506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>152.4</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>2.77</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="13">
-        <v>784.6873369963914</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="11">
+        <v>784.68733699639142</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="33">
-        <v>879.6440113373552</v>
+      <c r="G13" s="31">
+        <v>879.64401133735521</v>
       </c>
     </row>
   </sheetData>
@@ -2722,288 +2736,312 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="14">
         <v>44.5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>44.5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="14">
         <v>44.5</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>17.174310755104187</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>27.871627601973145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="14">
         <v>44.5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>17.174310755104187</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>27.871627601973145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="14">
         <v>44.5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>19.313349459259765</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>32.659586382289355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="14">
         <v>44.5</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>21.622891248529182</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="36">
-        <v>35.02185743615397</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="34">
+        <v>35.021857436153972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="14">
         <v>57.2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>29.140527274003496</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>46.86492104177055</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="14">
         <v>57.2</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="16">
-        <v>45.49332316446821</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="14">
+        <v>45.493323164468208</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="36">
-        <v>69.44125648273173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>69.441256482731731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="14">
         <v>57.2</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>56.049014161062026</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="33">
-        <v>83.99538284144126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="31">
+        <v>83.995382841441256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="14">
         <v>57.2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>77.25339783703906</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>111.72432293009375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="39">
         <v>76.2</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>222.98703476798633</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="33">
-        <v>273.7222130535076</v>
+      <c r="G13" s="31">
+        <v>273.72221305350757</v>
       </c>
     </row>
   </sheetData>
@@ -3012,287 +3050,309 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="11">
         <v>28.58</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>28.58</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="14">
         <v>28.58</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="16">
-        <v>9.982180619392684</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="14">
+        <v>9.9821806193926843</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>16.646876554079526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="14">
         <v>28.58</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="16">
-        <v>9.982180619392684</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="14">
+        <v>9.9821806193926843</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>16.646876554079526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="14">
         <v>28.58</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>11.764712872855666</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>20.071376873775886</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="14">
         <v>28.58</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>11.764712872855666</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>21.625085352156642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="14">
         <v>28.58</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>14.849268685369863</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>26.397189964326106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="11">
         <v>28.58</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>23.157419014553838</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>41.30010802226397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="14">
         <v>28.58</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>25.590963047542427</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>46.960046050650995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="14">
         <v>28.58</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>36.084652922276675</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>62.576401675192265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="39">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="14">
         <v>38.1</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>154.32079230849936</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>213.46051992773977</v>
       </c>
     </row>
@@ -3302,287 +3362,309 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="11">
         <v>12.7</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>12.7</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="16">
-        <v>6.401615832001831</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="14">
+        <v>6.4016158320018306</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>12.905292871448323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="14">
         <v>12.7</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="16">
-        <v>6.401615832001831</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="14">
+        <v>6.4016158320018306</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>12.905292871448323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="14">
         <v>12.7</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="16">
-        <v>9.346669120331972</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="14">
+        <v>9.3466691203319723</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="36">
-        <v>17.5347099702971</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>17.534709970297101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="14">
         <v>12.7</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="16">
-        <v>9.346669120331972</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="14">
+        <v>9.3466691203319723</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>19.104272616824595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="14">
         <v>12.7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>12.539726896100436</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="36">
-        <v>23.98735640602126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="34">
+        <v>23.987356406021259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="11">
         <v>12.7</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>16.895305706736064</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="33">
-        <v>34.76819074580609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="31">
+        <v>34.768190745806088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="14">
         <v>12.7</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>17.406814962077622</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="36">
-        <v>38.41464941955685</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="34">
+        <v>38.414649419556852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="14">
         <v>15.9</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>25.854467815445652</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>51.906546512434645</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="16">
-        <v>19.1</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="39">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>119.64666490852814</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>177.29716238502027</v>
       </c>
     </row>
@@ -3592,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3600,237 +3682,237 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>12.7</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>12.663729139819603</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="33">
-        <v>22.11656456470565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="31">
+        <v>22.116564564705651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>19.05</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>12.028217640758891</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="36">
-        <v>21.89460621065127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="34">
+        <v>21.894606210651268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>25.4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>13.175238395161152</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>24.653231468184437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>38.1</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="16">
-        <v>16.50779869511368</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="14">
+        <v>16.507798695113681</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>29.69485693884852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>50.8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="16">
-        <v>18.94134272810227</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="14">
+        <v>18.941342728102271</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="36">
-        <v>33.78523232070806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>33.785232320708062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>63.5</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>26.226474546603146</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>47.625921112814176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>76.2</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>36.47215993389905</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="36">
-        <v>61.41904740048008</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="G9" s="34">
+        <v>61.419047400480082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>101.6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13">
-        <v>47.08985205235245</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="11">
+        <v>47.089852052352448</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="33">
-        <v>77.17809053834203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="31">
+        <v>77.178090538342033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>152.4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>225.52866051082273</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>312.96751470810176</v>
       </c>
     </row>
@@ -3840,26 +3922,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3867,284 +3951,284 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>6.35</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>13.28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>13.28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>13.28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>13.28</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>50.5</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>14.6</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>14.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>50.5</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>14.6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>14.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>64</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>19.18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>19.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>77.5</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>21.87</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>21.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>76.2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>91</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>23.09</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>23.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>119</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>27.27</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>27.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>152.4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>167</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/ASME_BPE.xlsx
+++ b/data/ASME_BPE.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b494536d0e93f0f/Documenti/DKW Pharma/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1349FA59F745FEF5EF70F1FBA5730BA59D94CC6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C391291-631D-40BD-9E08-0D417C6D0C60}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tube" sheetId="1" r:id="rId1"/>
-    <sheet name="Elbow 90°" sheetId="2" r:id="rId2"/>
-    <sheet name="Elbow 45°" sheetId="3" r:id="rId3"/>
-    <sheet name="Ferrule A (long)" sheetId="4" r:id="rId4"/>
-    <sheet name="Ferrule B (medium)" sheetId="5" r:id="rId5"/>
-    <sheet name="Ferrule C (short)" sheetId="6" r:id="rId6"/>
-    <sheet name="End Caps" sheetId="7" r:id="rId7"/>
-    <sheet name="Clamps" sheetId="8" r:id="rId8"/>
+    <sheet r:id="rId1" sheetId="1" name="Tube"/>
+    <sheet r:id="rId2" sheetId="2" name="Tube BPE Direct - SF1"/>
+    <sheet r:id="rId3" sheetId="3" name="Elbow 90°"/>
+    <sheet r:id="rId4" sheetId="4" name="Elbow 45°"/>
+    <sheet r:id="rId5" sheetId="5" name="Ferrule A (long)"/>
+    <sheet r:id="rId6" sheetId="6" name="Ferrule B (medium)"/>
+    <sheet r:id="rId7" sheetId="7" name="Ferrule C (short)"/>
+    <sheet r:id="rId8" sheetId="8" name="End Caps"/>
+    <sheet r:id="rId9" sheetId="9" name="Clamps"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
   <si>
     <t>Clamps</t>
   </si>
@@ -220,6 +215,9 @@
     </r>
   </si>
   <si>
+    <t>Lenght</t>
+  </si>
+  <si>
     <t>SF1-FC-04-4-1</t>
   </si>
   <si>
@@ -311,6 +309,9 @@
     </r>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
     <t>SF1-FB-04-4-1</t>
   </si>
   <si>
@@ -650,6 +651,48 @@
     <t>SF4-E9-96-1-1</t>
   </si>
   <si>
+    <t>BPE Direct</t>
+  </si>
+  <si>
+    <t>SF1 (BF)</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Order Code</t>
+  </si>
+  <si>
+    <t>Price in € / m</t>
+  </si>
+  <si>
+    <t>m/crate</t>
+  </si>
+  <si>
+    <t>BPE-12</t>
+  </si>
+  <si>
+    <t>BPE-16</t>
+  </si>
+  <si>
+    <t>BPE-24</t>
+  </si>
+  <si>
+    <t>BPE-32</t>
+  </si>
+  <si>
+    <t>BPE-40</t>
+  </si>
+  <si>
+    <t>BPE-48</t>
+  </si>
+  <si>
+    <t>BPE-64</t>
+  </si>
+  <si>
+    <t>BPE-96</t>
+  </si>
+  <si>
     <t>DT-4.1 Tube</t>
   </si>
   <si>
@@ -720,22 +763,16 @@
   </si>
   <si>
     <t>SF4-96</t>
-  </si>
-  <si>
-    <t>Lenght</t>
-  </si>
-  <si>
-    <t>Length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +840,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -813,11 +856,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor rgb="FFe8e8e8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -830,7 +873,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -842,10 +885,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -857,7 +900,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1017,34 +1060,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1053,7 +1096,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,7 +1157,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1126,10 +1169,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1208,266 +1251,309 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="94">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1478,10 +1564,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1519,71 +1605,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1611,7 +1697,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1634,11 +1720,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1647,13 +1733,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1663,7 +1749,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1672,7 +1758,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1681,7 +1767,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1689,10 +1775,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1757,347 +1843,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="90" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="91" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="92" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="91" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="90" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="91" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="93" width="15.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+      <c r="A1" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="H2" s="74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="62">
         <v>6.35</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>0.89</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="55">
-        <v>21.991534684118999</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="57">
+      <c r="D3" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="63">
+        <v>21.991534684119</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="77">
         <v>29.571701811651995</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="78">
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="62">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.89</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="55">
+      <c r="D4" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="63">
         <v>27.257706782806498</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="61">
-        <v>36.376064267342791</v>
-      </c>
-      <c r="H4" s="62">
+      <c r="F4" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="81">
+        <v>36.37606426734279</v>
+      </c>
+      <c r="H4" s="82">
         <v>0.193</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="62">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>1.65</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="63">
+      <c r="D5" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="83">
         <v>26.49823444794605</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="61">
+      <c r="F5" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="81">
         <v>32.30925077425001</v>
       </c>
-      <c r="H5" s="62">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="H5" s="82">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="62">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>1.65</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="64">
-        <v>34.511235053109537</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="61">
-        <v>46.736067307020633</v>
-      </c>
-      <c r="H6" s="62">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="D6" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="84">
+        <v>34.51123505310954</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="81">
+        <v>46.73606730702063</v>
+      </c>
+      <c r="H6" s="82">
+        <v>0.722</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="62">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>1.65</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="64">
+      <c r="D7" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="84">
         <v>27.726127462982454</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="61">
+      <c r="F7" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="81">
         <v>47.340413004956254</v>
       </c>
-      <c r="H7" s="62">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="H7" s="82">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="62">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>1.65</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="64">
-        <v>36.275901049161853</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="61">
-        <v>56.328118256306382</v>
-      </c>
-      <c r="H8" s="62">
+      <c r="D8" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="84">
+        <v>36.27590104916185</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="81">
+        <v>56.32811825630638</v>
+      </c>
+      <c r="H8" s="82">
         <v>1.512</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="62">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>1.65</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="D9" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="84">
         <v>46.841844647684965</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="61">
-        <v>71.901642010800984</v>
-      </c>
-      <c r="H9" s="62">
-        <v>2.0379999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="F9" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="81">
+        <v>71.90164201080098</v>
+      </c>
+      <c r="H9" s="82">
+        <v>2.038</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="62">
         <v>63.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>1.65</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="64">
-        <v>65.487627468608096</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="61">
+      <c r="D10" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="84">
+        <v>65.4876274686081</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="81">
         <v>105.06317517957555</v>
       </c>
-      <c r="H10" s="62">
-        <v>2.5649999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="H10" s="82">
+        <v>2.565</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="62">
         <v>76.2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>1.65</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="64">
-        <v>70.793338027407373</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="61">
+      <c r="D11" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="84">
+        <v>70.79333802740737</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="81">
         <v>113.21409407993792</v>
       </c>
-      <c r="H11" s="62">
-        <v>3.0920000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="H11" s="82">
+        <v>3.092</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="62">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>2.11</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="64">
+      <c r="D12" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="84">
         <v>130.6720714767134</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="61">
+      <c r="F12" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="81">
         <v>196.44334391614737</v>
       </c>
-      <c r="H12" s="62">
-        <v>5.2759999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="H12" s="82">
+        <v>5.276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="67">
         <v>152.4</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="43">
         <v>2.77</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="68">
+      <c r="D13" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="86">
         <v>494.4299561669946</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="70">
-        <v>596.36523551415428</v>
-      </c>
-      <c r="H13" s="71">
+      <c r="F13" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="88">
+        <v>596.3652355141543</v>
+      </c>
+      <c r="H13" s="89">
         <v>10.417</v>
       </c>
     </row>
@@ -2107,7 +2193,291 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="71" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="72" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="72" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="71" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="72" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="72" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="71" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="60"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="62">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0.89</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="62">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0.89</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="62">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="62">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="63">
+        <v>12.56</v>
+      </c>
+      <c r="F6" s="65">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="62">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="63">
+        <v>15.04</v>
+      </c>
+      <c r="F7" s="65">
+        <v>1080</v>
+      </c>
+      <c r="G7" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="62">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="63">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="65">
+        <v>660</v>
+      </c>
+      <c r="G8" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="62">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="63">
+        <v>29.98</v>
+      </c>
+      <c r="F9" s="65">
+        <v>384</v>
+      </c>
+      <c r="G9" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="62">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="63">
+        <v>38.16</v>
+      </c>
+      <c r="F10" s="65">
+        <v>486</v>
+      </c>
+      <c r="G10" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="62">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="41">
+        <v>1.65</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="63">
+        <v>44.43</v>
+      </c>
+      <c r="F11" s="65">
+        <v>360</v>
+      </c>
+      <c r="G11" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="62">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="41">
+        <v>2.11</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="63">
+        <v>78.61</v>
+      </c>
+      <c r="F12" s="65">
+        <v>216</v>
+      </c>
+      <c r="G12" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="67">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="68">
+        <v>2.77</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="67">
+        <v>227.2</v>
+      </c>
+      <c r="F13" s="67">
+        <v>96</v>
+      </c>
+      <c r="G13" s="59"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2115,301 +2485,301 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>6.35</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>0.89</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="43">
+      <c r="D3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="50">
         <v>25.75240854664478</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="31">
-        <v>47.126607429541622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="33">
+        <v>47.12660742954162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.89</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="43">
-        <v>26.455875518192119</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="34">
-        <v>52.119968408307798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="50">
+        <v>26.45587551819212</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="36">
+        <v>52.1199684083078</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>1.65</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="44">
-        <v>26.325562264026232</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="34">
+      <c r="D5" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="51">
+        <v>26.32556226402623</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="36">
         <v>42.75991172705271</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>1.65</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="45">
-        <v>24.667742599586099</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="34">
-        <v>41.708181152268381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="52">
+        <v>24.6677425995861</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="36">
+        <v>41.70818115226838</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>1.65</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="45">
+      <c r="D7" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="52">
         <v>19.295178872233805</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="34">
-        <v>35.036755864457298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="F7" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="36">
+        <v>35.0367558644573</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>1.65</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D8" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="52">
         <v>24.069085498538275</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="34">
-        <v>40.923307588996487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="F8" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="36">
+        <v>40.92330758899649</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>1.65</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="52">
         <v>30.807815430845867</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="34">
-        <v>52.916175635791021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="F9" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="36">
+        <v>52.91617563579102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <v>63.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>1.65</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="45">
-        <v>44.669029847414777</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="34">
-        <v>77.529810579997587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="52">
+        <v>44.66902984741478</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="36">
+        <v>77.52981057999759</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>76.2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>1.65</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="45">
-        <v>64.747068005634219</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="D11" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="52">
+        <v>64.74706800563422</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="36">
         <v>101.24868966207418</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>2.11</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="45">
+      <c r="D12" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="52">
         <v>122.11069843167853</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="34">
-        <v>165.90657380441269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="F12" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="36">
+        <v>165.9065738044127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="43">
         <v>152.4</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="43">
         <v>2.77</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="D13" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="54">
         <v>876.6802921913785</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="48">
+      <c r="F13" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="55">
         <v>1210.2976046922959</v>
       </c>
     </row>
@@ -2421,627 +2791,311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>6.35</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>0.89</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.89</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>1.65</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="16">
         <v>25.128248061930588</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="34">
-        <v>41.158769657978048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="F5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="36">
+        <v>41.15876965797805</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>1.65</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="16">
         <v>24.283988047632363</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="34">
-        <v>41.252954485570683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="F6" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="36">
+        <v>41.25295448557068</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>1.65</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="16">
         <v>18.021113759747404</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="F7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="36">
         <v>34.707108967883094</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>1.65</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="16">
         <v>21.152550903689892</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="34">
+      <c r="F8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="36">
         <v>37.752418393378036</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>1.65</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="16">
         <v>28.014082292622675</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="F9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="36">
         <v>48.44239632514121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <v>63.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>1.65</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="14">
-        <v>41.322690154378208</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="34">
-        <v>71.863023453174506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41.32269015437821</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="36">
+        <v>71.8630234531745</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>76.2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <v>1.65</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="11">
-        <v>56.857074417465412</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="31">
-        <v>92.677870351145089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="13">
+        <v>56.85707441746541</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="33">
+        <v>92.67787035114509</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>2.11</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="16">
         <v>102.81551955944475</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="34">
+      <c r="F12" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="36">
         <v>149.14167449292506</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="43">
         <v>152.4</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="43">
         <v>2.77</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="11">
-        <v>784.68733699639142</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="31">
-        <v>879.64401133735521</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6.35</v>
-      </c>
-      <c r="C3" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="C5" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="14">
-        <v>17.174310755104187</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="34">
-        <v>27.871627601973145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14">
-        <v>19.05</v>
-      </c>
-      <c r="C6" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="14">
-        <v>17.174310755104187</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="34">
-        <v>27.871627601973145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14">
-        <v>25.4</v>
-      </c>
-      <c r="C7" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="14">
-        <v>19.313349459259765</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="34">
-        <v>32.659586382289355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14">
-        <v>38.1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>44.5</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="14">
-        <v>21.622891248529182</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="34">
-        <v>35.021857436153972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14">
-        <v>50.8</v>
-      </c>
-      <c r="C9" s="14">
-        <v>57.2</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="14">
-        <v>29.140527274003496</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="34">
-        <v>46.86492104177055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="14">
-        <v>63.5</v>
-      </c>
-      <c r="C10" s="14">
-        <v>57.2</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="14">
-        <v>45.493323164468208</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="34">
-        <v>69.441256482731731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14">
-        <v>76.2</v>
-      </c>
-      <c r="C11" s="14">
-        <v>57.2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="11">
-        <v>56.049014161062026</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="31">
-        <v>83.995382841441256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14">
-        <v>101.6</v>
-      </c>
-      <c r="C12" s="14">
-        <v>57.2</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="14">
-        <v>77.25339783703906</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="34">
-        <v>111.72432293009375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="39">
-        <v>152.4</v>
-      </c>
-      <c r="C13" s="39">
-        <v>76.2</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="11">
-        <v>222.98703476798633</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="31">
-        <v>273.72221305350757</v>
+      <c r="D13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="13">
+        <v>784.6873369963914</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="33">
+        <v>879.6440113373552</v>
       </c>
     </row>
   </sheetData>
@@ -3050,310 +3104,310 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+      <c r="A1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>6.35</v>
       </c>
-      <c r="C3" s="11">
-        <v>28.58</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="14">
-        <v>9.9821806193926843</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="34">
-        <v>16.646876554079526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="16">
+        <v>17.174310755104187</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="36">
+        <v>27.871627601973145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="14">
-        <v>9.9821806193926843</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="34">
-        <v>16.646876554079526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="16">
+        <v>17.174310755104187</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="36">
+        <v>27.871627601973145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="14">
-        <v>11.764712872855666</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="34">
-        <v>20.071376873775886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="16">
+        <v>19.313349459259765</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="36">
+        <v>32.659586382289355</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="14">
-        <v>11.764712872855666</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="34">
-        <v>21.625085352156642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="16">
+        <v>21.622891248529182</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="36">
+        <v>35.02185743615397</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="14">
-        <v>14.849268685369863</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="34">
-        <v>26.397189964326106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="C9" s="16">
+        <v>57.2</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="16">
+        <v>29.140527274003496</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="36">
+        <v>46.86492104177055</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <v>63.5</v>
       </c>
-      <c r="C10" s="11">
-        <v>28.58</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="11">
-        <v>23.157419014553838</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="31">
-        <v>41.30010802226397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="16">
+        <v>57.2</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45.49332316446821</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="36">
+        <v>69.44125648273173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>76.2</v>
       </c>
-      <c r="C11" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="14">
-        <v>25.590963047542427</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="34">
-        <v>46.960046050650995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="16">
+        <v>57.2</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="13">
+        <v>56.049014161062026</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="33">
+        <v>83.99538284144126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
-        <v>28.58</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="14">
-        <v>36.084652922276675</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="34">
-        <v>62.576401675192265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="C12" s="16">
+        <v>57.2</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="16">
+        <v>77.25339783703906</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="36">
+        <v>111.72432293009375</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="43">
         <v>152.4</v>
       </c>
-      <c r="C13" s="14">
-        <v>38.1</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="14">
-        <v>154.32079230849936</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="34">
-        <v>213.46051992773977</v>
+      <c r="C13" s="43">
+        <v>76.2</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="13">
+        <v>222.98703476798633</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="33">
+        <v>273.7222130535076</v>
       </c>
     </row>
   </sheetData>
@@ -3362,310 +3416,310 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>6.35</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16">
         <v>12.7</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="C5" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="14">
-        <v>6.4016158320018306</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="34">
-        <v>12.905292871448323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="16">
+        <v>9.982180619392684</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="36">
+        <v>16.646876554079526</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="14">
-        <v>6.4016158320018306</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="34">
-        <v>12.905292871448323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16">
+        <v>9.982180619392684</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="36">
+        <v>16.646876554079526</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="14">
-        <v>9.3466691203319723</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="34">
-        <v>17.534709970297101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16">
+        <v>11.764712872855666</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="36">
+        <v>20.071376873775886</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="14">
-        <v>9.3466691203319723</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="34">
-        <v>19.104272616824595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="16">
+        <v>11.764712872855666</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="36">
+        <v>21.625085352156642</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="14">
-        <v>12.539726896100436</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="34">
-        <v>23.987356406021259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="C9" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="16">
+        <v>14.849268685369863</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="36">
+        <v>26.397189964326106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <v>63.5</v>
       </c>
-      <c r="C10" s="11">
-        <v>12.7</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="11">
-        <v>16.895305706736064</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="31">
-        <v>34.768190745806088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="13">
+        <v>28.58</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="13">
+        <v>23.157419014553838</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="33">
+        <v>41.30010802226397</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>76.2</v>
       </c>
-      <c r="C11" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="14">
-        <v>17.406814962077622</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="34">
-        <v>38.414649419556852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="16">
+        <v>25.590963047542427</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="36">
+        <v>46.960046050650995</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
-        <v>15.9</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="14">
-        <v>25.854467815445652</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="34">
-        <v>51.906546512434645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="C12" s="16">
+        <v>28.58</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="16">
+        <v>36.084652922276675</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="36">
+        <v>62.576401675192265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="43">
         <v>152.4</v>
       </c>
-      <c r="C13" s="14">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="14">
-        <v>119.64666490852814</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="34">
-        <v>177.29716238502027</v>
+      <c r="C13" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="16">
+        <v>154.32079230849936</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="36">
+        <v>213.46051992773977</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +3728,319 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6.401615832001831</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="36">
+        <v>12.905292871448323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="16">
+        <v>6.401615832001831</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="36">
+        <v>12.905292871448323</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="16">
+        <v>9.346669120331972</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="36">
+        <v>17.5347099702971</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="16">
+        <v>9.346669120331972</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="36">
+        <v>19.104272616824595</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="16">
+        <v>12.539726896100436</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="36">
+        <v>23.98735640602126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13">
+        <v>16.895305706736064</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="33">
+        <v>34.76819074580609</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="16">
+        <v>17.406814962077622</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="36">
+        <v>38.41464941955685</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="16">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="16">
+        <v>25.854467815445652</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="36">
+        <v>51.906546512434645</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="43">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="16">
+        <v>19.1</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="16">
+        <v>119.64666490852814</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="36">
+        <v>177.29716238502027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3682,237 +4048,237 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>12.7</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>12.663729139819603</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="31">
-        <v>22.116564564705651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="G3" s="33">
+        <v>22.11656456470565</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="16">
         <v>19.05</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>12.028217640758891</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="34">
-        <v>21.894606210651268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="G4" s="36">
+        <v>21.89460621065127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>25.4</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>13.175238395161152</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="36">
         <v>24.653231468184437</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>38.1</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="14">
-        <v>16.507798695113681</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="16">
+        <v>16.50779869511368</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="36">
         <v>29.69485693884852</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>50.8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="14">
-        <v>18.941342728102271</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="16">
+        <v>18.94134272810227</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="34">
-        <v>33.785232320708062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="36">
+        <v>33.78523232070806</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>63.5</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>26.226474546603146</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="36">
         <v>47.625921112814176</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>76.2</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <v>36.47215993389905</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="34">
-        <v>61.419047400480082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="G9" s="36">
+        <v>61.41904740048008</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>101.6</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="11">
-        <v>47.089852052352448</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="13">
+        <v>47.08985205235245</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="31">
-        <v>77.178090538342033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="G10" s="33">
+        <v>77.17809053834203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>152.4</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <v>225.52866051082273</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="36">
         <v>312.96751470810176</v>
       </c>
     </row>
@@ -3921,29 +4287,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3951,284 +4315,284 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>6.35</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>13.28</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>13.28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="16">
+        <v>9.53</v>
+      </c>
+      <c r="C4" s="16">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>13.28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="16">
         <v>13.28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>13.28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="16">
         <v>13.28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>13.28</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="16">
         <v>13.28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>50.5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="16">
         <v>14.6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="16">
         <v>14.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>50.5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>14.6</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="16">
         <v>14.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>64</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <v>19.18</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <v>19.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <v>63.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>77.5</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <v>21.87</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <v>21.87</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>76.2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>91</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>23.09</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="13">
         <v>23.09</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>119</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <v>27.27</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <v>27.27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="19">
         <v>152.4</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <v>167</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/ASME_BPE.xlsx
+++ b/data/ASME_BPE.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b494536d0e93f0f/Documenti/DKW Pharma/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_1AFC0BA5F4387A1533081D04123F727FEF072D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B89575-E909-4169-B363-51C0DFD235B8}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Tube"/>
-    <sheet r:id="rId2" sheetId="2" name="Tube BPE Direct - SF1"/>
-    <sheet r:id="rId3" sheetId="3" name="Elbow 90°"/>
-    <sheet r:id="rId4" sheetId="4" name="Elbow 45°"/>
-    <sheet r:id="rId5" sheetId="5" name="Ferrule A (long)"/>
-    <sheet r:id="rId6" sheetId="6" name="Ferrule B (medium)"/>
-    <sheet r:id="rId7" sheetId="7" name="Ferrule C (short)"/>
-    <sheet r:id="rId8" sheetId="8" name="End Caps"/>
-    <sheet r:id="rId9" sheetId="9" name="Clamps"/>
+    <sheet name="Tube" sheetId="1" r:id="rId1"/>
+    <sheet name="Tube BPE Direct - SF1" sheetId="2" r:id="rId2"/>
+    <sheet name="Elbow 90°" sheetId="3" r:id="rId3"/>
+    <sheet name="Elbow 45°" sheetId="4" r:id="rId4"/>
+    <sheet name="Ferrule A (long)" sheetId="5" r:id="rId5"/>
+    <sheet name="Ferrule B (medium)" sheetId="6" r:id="rId6"/>
+    <sheet name="Ferrule C (short)" sheetId="7" r:id="rId7"/>
+    <sheet name="End Caps" sheetId="8" r:id="rId8"/>
+    <sheet name="Clamps" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -666,9 +672,6 @@
     <t>Price in € / m</t>
   </si>
   <si>
-    <t>m/crate</t>
-  </si>
-  <si>
     <t>BPE-12</t>
   </si>
   <si>
@@ -763,12 +766,15 @@
   </si>
   <si>
     <t>SF4-96</t>
+  </si>
+  <si>
+    <t>m/cassa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -856,7 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe8e8e8"/>
+        <fgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -873,7 +879,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -885,10 +891,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -900,7 +906,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1060,34 +1066,34 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1096,7 +1102,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,7 +1163,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1169,10 +1175,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1264,296 +1270,288 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="91">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1564,10 +1562,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1605,71 +1603,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1697,7 +1695,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1720,11 +1718,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1733,13 +1731,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1749,7 +1747,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1758,7 +1756,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1767,7 +1765,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1775,10 +1773,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1843,347 +1841,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="90" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="91" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="92" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="91" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="90" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="91" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="93" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="74" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="54">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="62">
-        <v>6.35</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="E3" s="55">
+        <v>21.991534684118999</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="65">
+        <v>29.571701811651995</v>
+      </c>
+      <c r="H3" s="66">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="54">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="63">
-        <v>21.991534684119</v>
-      </c>
-      <c r="F3" s="76" t="s">
+      <c r="D4" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="77">
-        <v>29.571701811651995</v>
-      </c>
-      <c r="H3" s="78">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="62">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.89</v>
-      </c>
-      <c r="D4" s="79" t="s">
+      <c r="E4" s="55">
+        <v>27.257706782806498</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="63">
-        <v>27.257706782806498</v>
-      </c>
-      <c r="F4" s="80" t="s">
+      <c r="G4" s="69">
+        <v>36.376064267342791</v>
+      </c>
+      <c r="H4" s="70">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="54">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="81">
-        <v>36.37606426734279</v>
-      </c>
-      <c r="H4" s="82">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="62">
-        <v>12.7</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="E5" s="71">
+        <v>26.49823444794605</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="69">
+        <v>32.30925077425001</v>
+      </c>
+      <c r="H5" s="70">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="54">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="83">
-        <v>26.49823444794605</v>
-      </c>
-      <c r="F5" s="80" t="s">
+      <c r="D6" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="81">
-        <v>32.30925077425001</v>
-      </c>
-      <c r="H5" s="82">
-        <v>0.458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="62">
-        <v>19.05</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="E6" s="72">
+        <v>34.511235053109537</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="69">
+        <v>46.736067307020633</v>
+      </c>
+      <c r="H6" s="70">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="54">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="84">
-        <v>34.51123505310954</v>
-      </c>
-      <c r="F6" s="80" t="s">
+      <c r="D7" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="81">
-        <v>46.73606730702063</v>
-      </c>
-      <c r="H6" s="82">
-        <v>0.722</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="62">
-        <v>25.4</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="E7" s="72">
+        <v>27.726127462982454</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="69">
+        <v>47.340413004956254</v>
+      </c>
+      <c r="H7" s="70">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="54">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="84">
-        <v>27.726127462982454</v>
-      </c>
-      <c r="F7" s="80" t="s">
+      <c r="D8" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="81">
-        <v>47.340413004956254</v>
-      </c>
-      <c r="H7" s="82">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="62">
-        <v>38.1</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="E8" s="72">
+        <v>36.275901049161853</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="69">
+        <v>56.328118256306382</v>
+      </c>
+      <c r="H8" s="70">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="54">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="84">
-        <v>36.27590104916185</v>
-      </c>
-      <c r="F8" s="80" t="s">
+      <c r="D9" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="G8" s="81">
-        <v>56.32811825630638</v>
-      </c>
-      <c r="H8" s="82">
-        <v>1.512</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="62">
-        <v>50.8</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="E9" s="72">
+        <v>46.841844647684965</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="69">
+        <v>71.901642010800984</v>
+      </c>
+      <c r="H9" s="70">
+        <v>2.0379999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="54">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="84">
-        <v>46.841844647684965</v>
-      </c>
-      <c r="F9" s="80" t="s">
+      <c r="D10" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="81">
-        <v>71.90164201080098</v>
-      </c>
-      <c r="H9" s="82">
-        <v>2.038</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="62">
-        <v>63.5</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="E10" s="72">
+        <v>65.487627468608096</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="69">
+        <v>105.06317517957555</v>
+      </c>
+      <c r="H10" s="70">
+        <v>2.5649999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="54">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="84">
-        <v>65.4876274686081</v>
-      </c>
-      <c r="F10" s="80" t="s">
+      <c r="D11" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="81">
-        <v>105.06317517957555</v>
-      </c>
-      <c r="H10" s="82">
-        <v>2.565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="62">
-        <v>76.2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1.65</v>
-      </c>
-      <c r="D11" s="79" t="s">
+      <c r="E11" s="72">
+        <v>70.793338027407373</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="84">
-        <v>70.79333802740737</v>
-      </c>
-      <c r="F11" s="80" t="s">
+      <c r="G11" s="69">
+        <v>113.21409407993792</v>
+      </c>
+      <c r="H11" s="70">
+        <v>3.0920000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="54">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="81">
-        <v>113.21409407993792</v>
-      </c>
-      <c r="H11" s="82">
-        <v>3.092</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="62">
-        <v>101.6</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2.11</v>
-      </c>
-      <c r="D12" s="79" t="s">
+      <c r="E12" s="72">
+        <v>130.6720714767134</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="84">
-        <v>130.6720714767134</v>
-      </c>
-      <c r="F12" s="80" t="s">
+      <c r="G12" s="69">
+        <v>196.44334391614737</v>
+      </c>
+      <c r="H12" s="70">
+        <v>5.2759999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="58">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="40">
+        <v>2.77</v>
+      </c>
+      <c r="D13" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="81">
-        <v>196.44334391614737</v>
-      </c>
-      <c r="H12" s="82">
-        <v>5.276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="67">
-        <v>152.4</v>
-      </c>
-      <c r="C13" s="43">
-        <v>2.77</v>
-      </c>
-      <c r="D13" s="85" t="s">
+      <c r="E13" s="74">
+        <v>494.4299561669946</v>
+      </c>
+      <c r="F13" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="86">
-        <v>494.4299561669946</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="88">
-        <v>596.3652355141543</v>
-      </c>
-      <c r="H13" s="89">
+      <c r="G13" s="76">
+        <v>596.36523551415428</v>
+      </c>
+      <c r="H13" s="77">
         <v>10.417</v>
       </c>
     </row>
@@ -2193,281 +2191,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="71" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="72" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="72" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="71" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="72" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="72" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="71" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="20.90625" style="20"/>
+    <col min="3" max="3" width="20.90625" style="60"/>
+    <col min="5" max="6" width="20.90625" style="60"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1.65</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="60"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="62">
-        <v>6.35</v>
-      </c>
-      <c r="C3" s="41">
-        <v>0.89</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="62">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0.89</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="62">
-        <v>12.7</v>
-      </c>
-      <c r="C5" s="41">
+      <c r="E6" s="44">
+        <v>12.56</v>
+      </c>
+      <c r="F6" s="89">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="38">
         <v>1.65</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="62">
-        <v>19.05</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="D7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="44">
+        <v>15.04</v>
+      </c>
+      <c r="F7" s="89">
+        <v>1080</v>
+      </c>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="38">
         <v>1.65</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="63">
-        <v>12.56</v>
-      </c>
-      <c r="F6" s="65">
-        <v>1500</v>
-      </c>
-      <c r="G6" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="62">
-        <v>25.4</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="D8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="44">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="89">
+        <v>660</v>
+      </c>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="38">
         <v>1.65</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="63">
-        <v>15.04</v>
-      </c>
-      <c r="F7" s="65">
-        <v>1080</v>
-      </c>
-      <c r="G7" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="62">
-        <v>38.1</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="D9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="44">
+        <v>29.98</v>
+      </c>
+      <c r="F9" s="89">
+        <v>384</v>
+      </c>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="38">
         <v>1.65</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="63">
-        <v>21.5</v>
-      </c>
-      <c r="F8" s="65">
-        <v>660</v>
-      </c>
-      <c r="G8" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="62">
-        <v>50.8</v>
-      </c>
-      <c r="C9" s="41">
+      <c r="D10" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="44">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="F10" s="89">
+        <v>486</v>
+      </c>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="14">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="38">
         <v>1.65</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="63">
-        <v>29.98</v>
-      </c>
-      <c r="F9" s="65">
-        <v>384</v>
-      </c>
-      <c r="G9" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="62">
-        <v>63.5</v>
-      </c>
-      <c r="C10" s="41">
-        <v>1.65</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="63">
-        <v>38.16</v>
-      </c>
-      <c r="F10" s="65">
-        <v>486</v>
-      </c>
-      <c r="G10" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="62">
-        <v>76.2</v>
-      </c>
-      <c r="C11" s="41">
-        <v>1.65</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="44">
+        <v>44.43</v>
+      </c>
+      <c r="F11" s="89">
+        <v>360</v>
+      </c>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2.11</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="63">
-        <v>44.43</v>
-      </c>
-      <c r="F11" s="65">
-        <v>360</v>
-      </c>
-      <c r="G11" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="62">
-        <v>101.6</v>
-      </c>
-      <c r="C12" s="41">
-        <v>2.11</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="44">
+        <v>78.61</v>
+      </c>
+      <c r="F12" s="89">
+        <v>216</v>
+      </c>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="40">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="59">
+        <v>2.77</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="63">
-        <v>78.61</v>
-      </c>
-      <c r="F12" s="65">
-        <v>216</v>
-      </c>
-      <c r="G12" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="67">
-        <v>152.4</v>
-      </c>
-      <c r="C13" s="68">
-        <v>2.77</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="67">
+      <c r="E13" s="40">
         <v>227.2</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="90">
         <v>96</v>
       </c>
-      <c r="G13" s="59"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69"/>
-    </row>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
@@ -2477,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2485,301 +2473,301 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="44">
         <v>25.75240854664478</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="33">
-        <v>47.12660742954162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="31">
+        <v>47.126607429541622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="50">
-        <v>26.45587551819212</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="44">
+        <v>26.455875518192119</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="36">
-        <v>52.1199684083078</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="34">
+        <v>52.119968408307798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="51">
-        <v>26.32556226402623</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="45">
+        <v>26.325562264026232</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>42.75991172705271</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="52">
-        <v>24.6677425995861</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="46">
+        <v>24.667742599586099</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="36">
-        <v>41.70818115226838</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="34">
+        <v>41.708181152268381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="46">
         <v>19.295178872233805</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="36">
-        <v>35.0367558644573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>35.036755864457298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="46">
         <v>24.069085498538275</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="36">
-        <v>40.92330758899649</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="34">
+        <v>40.923307588996487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="46">
         <v>30.807815430845867</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="36">
-        <v>52.91617563579102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="34">
+        <v>52.916175635791021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="52">
-        <v>44.66902984741478</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="46">
+        <v>44.669029847414777</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="36">
-        <v>77.52981057999759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>77.529810579997587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="52">
-        <v>64.74706800563422</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="46">
+        <v>64.747068005634219</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>101.24868966207418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2.11</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="46">
         <v>122.11069843167853</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="36">
-        <v>165.9065738044127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42" t="s">
+      <c r="G12" s="34">
+        <v>165.90657380441269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152.4</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <v>2.77</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="48">
         <v>876.6802921913785</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="49">
         <v>1210.2976046922959</v>
       </c>
     </row>
@@ -2792,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2800,302 +2788,302 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.89</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.89</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>25.128248061930588</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="36">
-        <v>41.15876965797805</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="34">
+        <v>41.158769657978048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.65</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>24.283988047632363</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="36">
-        <v>41.25295448557068</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="34">
+        <v>41.252954485570683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.65</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>18.021113759747404</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>34.707108967883094</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1.65</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>21.152550903689892</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>37.752418393378036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1.65</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>28.014082292622675</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>48.44239632514121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.65</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="16">
-        <v>41.32269015437821</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="14">
+        <v>41.322690154378208</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="36">
-        <v>71.8630234531745</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>71.863023453174506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.65</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="13">
-        <v>56.85707441746541</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="11">
+        <v>56.857074417465412</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="33">
-        <v>92.67787035114509</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="31">
+        <v>92.677870351145089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>2.11</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>102.81551955944475</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>149.14167449292506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152.4</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <v>2.77</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="13">
-        <v>784.6873369963914</v>
-      </c>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="11">
+        <v>784.68733699639142</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="33">
-        <v>879.6440113373552</v>
+      <c r="G13" s="31">
+        <v>879.64401133735521</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3112,302 +3100,302 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>44.5</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>44.5</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>44.5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>17.174310755104187</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>27.871627601973145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>44.5</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>17.174310755104187</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>27.871627601973145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>44.5</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>19.313349459259765</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>32.659586382289355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>44.5</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>21.622891248529182</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="36">
-        <v>35.02185743615397</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="34">
+        <v>35.021857436153972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>57.2</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>29.140527274003496</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>46.86492104177055</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>57.2</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="16">
-        <v>45.49332316446821</v>
-      </c>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="14">
+        <v>45.493323164468208</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="36">
-        <v>69.44125648273173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="34">
+        <v>69.441256482731731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>57.2</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>56.049014161062026</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="33">
-        <v>83.99538284144126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="31">
+        <v>83.995382841441256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>57.2</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>77.25339783703906</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>111.72432293009375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152.4</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <v>76.2</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>222.98703476798633</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="33">
-        <v>273.7222130535076</v>
+      <c r="G13" s="31">
+        <v>273.72221305350757</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3424,301 +3412,298 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>28.58</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>28.58</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>28.58</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="16">
-        <v>9.982180619392684</v>
-      </c>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="14">
+        <v>9.9821806193926843</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>16.646876554079526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>28.58</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="16">
-        <v>9.982180619392684</v>
-      </c>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="14">
+        <v>9.9821806193926843</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>16.646876554079526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>28.58</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>11.764712872855666</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>20.071376873775886</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>28.58</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>11.764712872855666</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>21.625085352156642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>28.58</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>14.849268685369863</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>26.397189964326106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>28.58</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>23.157419014553838</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>41.30010802226397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>28.58</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>25.590963047542427</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>46.960046050650995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>28.58</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>36.084652922276675</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>62.576401675192265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152.4</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>38.1</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>154.32079230849936</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>213.46051992773977</v>
       </c>
     </row>
@@ -3728,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3736,301 +3721,298 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>12.7</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>12.7</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>12.7</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="16">
-        <v>6.401615832001831</v>
-      </c>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="14">
+        <v>6.4016158320018306</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>12.905292871448323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>12.7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="16">
-        <v>6.401615832001831</v>
-      </c>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="14">
+        <v>6.4016158320018306</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>12.905292871448323</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>12.7</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="16">
-        <v>9.346669120331972</v>
-      </c>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="14">
+        <v>9.3466691203319723</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="36">
-        <v>17.5347099702971</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>17.534709970297101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>12.7</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="16">
-        <v>9.346669120331972</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="14">
+        <v>9.3466691203319723</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>19.104272616824595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>12.7</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>12.539726896100436</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="36">
-        <v>23.98735640602126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="34">
+        <v>23.987356406021259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>12.7</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>16.895305706736064</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="33">
-        <v>34.76819074580609</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="31">
+        <v>34.768190745806088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>76.2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>12.7</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>17.406814962077622</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="36">
-        <v>38.41464941955685</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="34">
+        <v>38.414649419556852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>15.9</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>25.854467815445652</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>51.906546512434645</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>152.4</v>
       </c>
-      <c r="C13" s="16">
-        <v>19.1</v>
-      </c>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="14">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>119.64666490852814</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>177.29716238502027</v>
       </c>
     </row>
@@ -4040,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4048,237 +4030,237 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>12.7</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>12.663729139819603</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="33">
-        <v>22.11656456470565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="31">
+        <v>22.116564564705651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>19.05</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>12.028217640758891</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="36">
-        <v>21.89460621065127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="34">
+        <v>21.894606210651268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>25.4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>13.175238395161152</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>24.653231468184437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>38.1</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="16">
-        <v>16.50779869511368</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="14">
+        <v>16.507798695113681</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>29.69485693884852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>50.8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="16">
-        <v>18.94134272810227</v>
-      </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="14">
+        <v>18.941342728102271</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="36">
-        <v>33.78523232070806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="34">
+        <v>33.785232320708062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>63.5</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>26.226474546603146</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>47.625921112814176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>76.2</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>36.47215993389905</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="36">
-        <v>61.41904740048008</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="G9" s="34">
+        <v>61.419047400480082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>101.6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13">
-        <v>47.08985205235245</v>
-      </c>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="11">
+        <v>47.089852052352448</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="33">
-        <v>77.17809053834203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="31">
+        <v>77.178090538342033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>152.4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>225.52866051082273</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>312.96751470810176</v>
       </c>
     </row>
@@ -4288,7 +4270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4296,18 +4278,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4315,284 +4297,284 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>6.35</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>13.28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>9.53</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>13.28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>13.28</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>13.28</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>13.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>50.5</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>14.6</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>14.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>50.5</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>14.6</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>14.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>50.8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>64</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>19.18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>19.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>77.5</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>21.87</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>21.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>76.2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>91</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>23.09</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>23.09</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>119</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>27.27</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>27.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>152.4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>167</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/ASME_BPE.xlsx
+++ b/data/ASME_BPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b494536d0e93f0f/Documenti/DKW Pharma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_1AFC0BA5F4387A1533081D04123F727FEF072D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B89575-E909-4169-B363-51C0DFD235B8}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_1AFC0BA5F4387A1533081D04123F727FEF072D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76567DA3-3680-4A27-BE20-25F60A89AF08}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16860" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tube" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Ferrule B (medium)" sheetId="6" r:id="rId6"/>
     <sheet name="Ferrule C (short)" sheetId="7" r:id="rId7"/>
     <sheet name="End Caps" sheetId="8" r:id="rId8"/>
-    <sheet name="Clamps" sheetId="9" r:id="rId9"/>
+    <sheet name="Tappi" sheetId="10" r:id="rId9"/>
+    <sheet name="Clamps" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
   <si>
     <t>Clamps</t>
   </si>
@@ -770,6 +771,75 @@
   <si>
     <t>m/cassa</t>
   </si>
+  <si>
+    <r>
+      <t>DT-4.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Grandview"/>
+        <family val="2"/>
+      </rPr>
+      <t>5-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="23"/>
+        <rFont val="Grandview"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Hygienic Clamp Joint: Solid End Cap </t>
+    </r>
+  </si>
+  <si>
+    <t>SF1-FTC-04-12-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-04-12-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-16-24-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-16-24-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-32-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-32-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-40-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-40-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-48-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-48-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-64-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-64-5-2</t>
+  </si>
+  <si>
+    <t>SF1-FTC-96-5-2</t>
+  </si>
+  <si>
+    <t>SF4-FTC-96-5-2</t>
+  </si>
+  <si>
+    <t>Dim clamp</t>
+  </si>
 </sst>
 </file>
 
@@ -778,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +922,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="23"/>
+      <name val="Grandview"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Grandview"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1513,6 +1596,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,19 +1621,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1555,6 +1646,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2190,6 +2285,323 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6.35</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
+        <v>13.28</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="C4" s="14">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14">
+        <v>13.28</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14">
+        <v>13.28</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>19.05</v>
+      </c>
+      <c r="C6" s="14">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>13.28</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14">
+        <v>25.4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>50.5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14">
+        <v>14.6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14">
+        <v>38.1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>50.5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>14.6</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14">
+        <v>50.8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>64</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14">
+        <v>19.18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="14">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14">
+        <v>63.5</v>
+      </c>
+      <c r="C10" s="14">
+        <v>77.5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <v>21.87</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>76.2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>91</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="11">
+        <v>23.09</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14">
+        <v>101.6</v>
+      </c>
+      <c r="C12" s="14">
+        <v>119</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14">
+        <v>27.27</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17">
+        <v>152.4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>167</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -2197,7 +2609,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2214,11 +2626,11 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2303,7 +2715,7 @@
       <c r="E6" s="44">
         <v>12.56</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="82">
         <v>1500</v>
       </c>
       <c r="G6" s="51"/>
@@ -2324,7 +2736,7 @@
       <c r="E7" s="44">
         <v>15.04</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="82">
         <v>1080</v>
       </c>
       <c r="G7" s="51"/>
@@ -2345,7 +2757,7 @@
       <c r="E8" s="44">
         <v>21.5</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="82">
         <v>660</v>
       </c>
       <c r="G8" s="51"/>
@@ -2366,7 +2778,7 @@
       <c r="E9" s="44">
         <v>29.98</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="82">
         <v>384</v>
       </c>
       <c r="G9" s="51"/>
@@ -2387,7 +2799,7 @@
       <c r="E10" s="44">
         <v>38.159999999999997</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="82">
         <v>486</v>
       </c>
       <c r="G10" s="51"/>
@@ -2408,7 +2820,7 @@
       <c r="E11" s="44">
         <v>44.43</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="82">
         <v>360</v>
       </c>
       <c r="G11" s="51"/>
@@ -2429,7 +2841,7 @@
       <c r="E12" s="44">
         <v>78.61</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="82">
         <v>216</v>
       </c>
       <c r="G12" s="51"/>
@@ -2450,7 +2862,7 @@
       <c r="E13" s="40">
         <v>227.2</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="83">
         <v>96</v>
       </c>
       <c r="G13" s="51"/>
@@ -2485,12 +2897,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="41"/>
       <c r="F1" s="42"/>
       <c r="G1" s="43"/>
@@ -4028,7 +4440,9 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4270,47 +4684,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C849C6-97E8-4EC6-B69C-538F609B1BF8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
+      <c r="C2" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
@@ -4325,263 +4736,265 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>6.35</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11">
-        <v>13.28</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5.3785973213187299</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="34">
+        <v>11.843063605616576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="14">
         <v>9.5299999999999994</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
+      <c r="D4" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="E4" s="14">
-        <v>13.28</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="14">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.3785973213187299</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="34">
+        <v>11.843063605616576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="14">
         <v>12.7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
+      <c r="D5" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="E5" s="14">
-        <v>13.28</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="14">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.3785973213187299</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="34">
+        <v>11.843063605616576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="14">
         <v>19.05</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
+      <c r="D6" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="E6" s="14">
-        <v>13.28</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="14">
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.3785973213187299</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="34">
+        <v>11.843063605616576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14">
         <v>25.4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>50.5</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>15</v>
+      <c r="D7" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="E7" s="14">
-        <v>14.6</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="14">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9.7186758514894613</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="34">
+        <v>19.500626820493157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="14">
         <v>38.1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>50.5</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>15</v>
+      <c r="D8" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="E8" s="14">
-        <v>14.6</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="14">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+        <v>9.7186758514894613</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="34">
+        <v>19.500626820493157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>50.8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>64</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14">
-        <v>19.18</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="14">
-        <v>19.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="11">
+        <v>12.803231664003661</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="31">
+        <v>24.256877264515886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="14">
         <v>63.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>77.5</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
+      <c r="D10" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="E10" s="14">
-        <v>21.87</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="14">
-        <v>21.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17.778821693235116</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="34">
+        <v>35.703586666463892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="11">
         <v>76.2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>91</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>22</v>
+      <c r="D11" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="E11" s="11">
-        <v>23.09</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="11">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23.79293051361455</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="31">
+        <v>45.089254209335408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="14">
         <v>101.6</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <v>119</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>24</v>
+      <c r="D12" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="E12" s="14">
-        <v>27.27</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14">
-        <v>27.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+        <v>40.564233976631471</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="34">
+        <v>67.253381278481271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>152.4</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>167</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>27</v>
+      <c r="D13" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="11">
+        <v>124.6377552182245</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="31">
+        <v>182.49732953715181</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
+  <conditionalFormatting sqref="A3:G13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>